--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_11_6.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_11_6.xlsx
@@ -478,373 +478,373 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_11_6_7</t>
+          <t>model_11_6_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.262817583271465</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.9025568555797818</v>
+        <v>0.4069518043360018</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.009264856733881</v>
+        <v>0.1142347282625567</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.252797137687198</v>
+        <v>0.3450633061518301</v>
       </c>
       <c r="F2" t="n">
-        <v>1.397566914558411</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G2" t="n">
-        <v>5.648554801940918</v>
+        <v>0.9062172770500183</v>
       </c>
       <c r="H2" t="n">
-        <v>2.954957723617554</v>
+        <v>0.8034555315971375</v>
       </c>
       <c r="I2" t="n">
-        <v>4.380971908569336</v>
+        <v>0.8578587174415588</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_11_6_8</t>
+          <t>model_11_6_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1994014217964564</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6871204558982278</v>
+        <v>0.4069518043360018</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.453495558857958</v>
+        <v>0.1142347282625567</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.142087707823484</v>
+        <v>0.3450633061518301</v>
       </c>
       <c r="F3" t="n">
-        <v>1.327383995056152</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G3" t="n">
-        <v>5.00894021987915</v>
+        <v>0.9062172770500183</v>
       </c>
       <c r="H3" t="n">
-        <v>3.217008590698242</v>
+        <v>0.8034555315971375</v>
       </c>
       <c r="I3" t="n">
-        <v>4.165677547454834</v>
+        <v>0.8578587174415588</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_11_6_3</t>
+          <t>model_11_6_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0921738602609059</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.8764234729864786</v>
+        <v>0.4069518043360018</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.07539145496225585</v>
+        <v>0.1142347282625567</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.670126322722095</v>
+        <v>0.3450633061518301</v>
       </c>
       <c r="F4" t="n">
-        <v>1.208714604377747</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G4" t="n">
-        <v>5.570966720581055</v>
+        <v>0.9062172770500183</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6343717575073242</v>
+        <v>0.8034555315971375</v>
       </c>
       <c r="I4" t="n">
-        <v>3.247862577438354</v>
+        <v>0.8578587174415588</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_11_6_1</t>
+          <t>model_11_6_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07204368358200908</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1197403139956106</v>
+        <v>0.4069518043360018</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.02527914969131295</v>
+        <v>0.1142347282625567</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.05138487563339678</v>
+        <v>0.3450633061518301</v>
       </c>
       <c r="F5" t="n">
-        <v>1.026974201202393</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G5" t="n">
-        <v>3.324428796768188</v>
+        <v>0.9062172770500183</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6048105955123901</v>
+        <v>0.8034555315971375</v>
       </c>
       <c r="I5" t="n">
-        <v>2.044608116149902</v>
+        <v>0.8578587174415588</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_11_6_0</t>
+          <t>model_11_6_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1488132945081821</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3974845365991772</v>
+        <v>0.4069518043360018</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7809695841706603</v>
+        <v>0.1142347282625567</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4817512199117302</v>
+        <v>0.3450633061518301</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9420128464698792</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G6" t="n">
-        <v>1.788825392723083</v>
+        <v>0.9062172770500183</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1292057037353516</v>
+        <v>0.8034555315971375</v>
       </c>
       <c r="I6" t="n">
-        <v>1.007828593254089</v>
+        <v>0.8578587174415588</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_11_6_2</t>
+          <t>model_11_6_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1663979220084115</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1383576024403266</v>
+        <v>0.4069518043360018</v>
       </c>
       <c r="D7" t="n">
-        <v>0.079538612376713</v>
+        <v>0.1142347282625567</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.05147033551773994</v>
+        <v>0.3450633061518301</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9225518107414246</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G7" t="n">
-        <v>3.379702568054199</v>
+        <v>0.9062172770500183</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5429787635803223</v>
+        <v>0.8034555315971375</v>
       </c>
       <c r="I7" t="n">
-        <v>2.044774293899536</v>
+        <v>0.8578587174415588</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_11_6_6</t>
+          <t>model_11_6_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2160373214960204</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.4304297965691655</v>
+        <v>0.4069518043360018</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2298413301876152</v>
+        <v>0.1142347282625567</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.3316981931088268</v>
+        <v>0.3450633061518301</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8676156997680664</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G8" t="n">
-        <v>4.246843814849854</v>
+        <v>0.9062172770500183</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7254815101623535</v>
+        <v>0.8034555315971375</v>
       </c>
       <c r="I8" t="n">
-        <v>2.589727878570557</v>
+        <v>0.8578587174415588</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_11_6_5</t>
+          <t>model_11_6_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2269131607509408</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.4056316224495156</v>
+        <v>0.4069518043360018</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1907091917928743</v>
+        <v>0.1142347282625567</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.306069767468562</v>
+        <v>0.3450633061518301</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8555793166160583</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G9" t="n">
-        <v>4.173219680786133</v>
+        <v>0.9062172770500183</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7023974657058716</v>
+        <v>0.8034555315971375</v>
       </c>
       <c r="I9" t="n">
-        <v>2.539889097213745</v>
+        <v>0.8578587174415588</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_11_6_4</t>
+          <t>model_11_6_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2343071069665164</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.3256491182338601</v>
+        <v>0.4069518043360018</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.217138745912768</v>
+        <v>0.1142347282625567</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2451990499319718</v>
+        <v>0.3450633061518301</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8473963141441345</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G10" t="n">
-        <v>3.935757637023926</v>
+        <v>0.9062172770500183</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7179882526397705</v>
+        <v>0.8034555315971375</v>
       </c>
       <c r="I10" t="n">
-        <v>2.421514749526978</v>
+        <v>0.8578587174415588</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_11_6_9</t>
+          <t>model_11_6_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3993484726791633</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1825644046072502</v>
+        <v>0.4069518043360018</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.868874551055297</v>
+        <v>0.1142347282625567</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.07021653652664162</v>
+        <v>0.3450633061518301</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6647442579269409</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G11" t="n">
-        <v>2.426907777786255</v>
+        <v>0.9062172770500183</v>
       </c>
       <c r="H11" t="n">
-        <v>1.692344665527344</v>
+        <v>0.8034555315971375</v>
       </c>
       <c r="I11" t="n">
-        <v>2.081229686737061</v>
+        <v>0.8578587174415588</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_11_6_10</t>
+          <t>model_11_6_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4031962506803888</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1828204666834705</v>
+        <v>0.4069518043360018</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.844138188941459</v>
+        <v>0.1142347282625567</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.06647633543690645</v>
+        <v>0.3450633061518301</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6604858636856079</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G12" t="n">
-        <v>2.426147699356079</v>
+        <v>0.9062172770500183</v>
       </c>
       <c r="H12" t="n">
-        <v>1.677752733230591</v>
+        <v>0.8034555315971375</v>
       </c>
       <c r="I12" t="n">
-        <v>2.073956489562988</v>
+        <v>0.8578587174415588</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_11_6_11</t>
+          <t>model_11_6_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.471206116017611</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2724493496006796</v>
+        <v>0.4069518043360018</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.609527822403186</v>
+        <v>0.1142347282625567</v>
       </c>
       <c r="E13" t="n">
-        <v>0.03945510792005991</v>
+        <v>0.3450633061518301</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5852190256118774</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G13" t="n">
-        <v>2.160046100616455</v>
+        <v>0.9062172770500183</v>
       </c>
       <c r="H13" t="n">
-        <v>1.539356470108032</v>
+        <v>0.8034555315971375</v>
       </c>
       <c r="I13" t="n">
-        <v>1.867953419685364</v>
+        <v>0.8578587174415588</v>
       </c>
     </row>
     <row r="14">
@@ -854,369 +854,369 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.495037704903772</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3048399825164292</v>
+        <v>0.4069518043360018</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.521875888304358</v>
+        <v>0.1142347282625567</v>
       </c>
       <c r="E14" t="n">
-        <v>0.07814606253389844</v>
+        <v>0.3450633061518301</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5588445067405701</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G14" t="n">
-        <v>2.063880443572998</v>
+        <v>0.9062172770500183</v>
       </c>
       <c r="H14" t="n">
-        <v>1.487650752067566</v>
+        <v>0.8034555315971375</v>
       </c>
       <c r="I14" t="n">
-        <v>1.792711853981018</v>
+        <v>0.8578587174415588</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_11_6_13</t>
+          <t>model_11_6_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.516428862446361</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3465180860095984</v>
+        <v>0.4069518043360018</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.489155564789586</v>
+        <v>0.1142347282625567</v>
       </c>
       <c r="E15" t="n">
-        <v>0.116501906262209</v>
+        <v>0.3450633061518301</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5351707339286804</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G15" t="n">
-        <v>1.940141081809998</v>
+        <v>0.9062172770500183</v>
       </c>
       <c r="H15" t="n">
-        <v>1.468349099159241</v>
+        <v>0.8034555315971375</v>
       </c>
       <c r="I15" t="n">
-        <v>1.718122005462646</v>
+        <v>0.8578587174415588</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_11_6_14</t>
+          <t>model_11_6_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5281840691326354</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3715566019987609</v>
+        <v>0.4069518043360018</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.481801201549056</v>
+        <v>0.1142347282625567</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1377899537661577</v>
+        <v>0.3450633061518301</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5221611857414246</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G16" t="n">
-        <v>1.865803360939026</v>
+        <v>0.9062172770500183</v>
       </c>
       <c r="H16" t="n">
-        <v>1.464010834693909</v>
+        <v>0.8034555315971375</v>
       </c>
       <c r="I16" t="n">
-        <v>1.676723718643188</v>
+        <v>0.8578587174415588</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_11_6_15</t>
+          <t>model_11_6_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5292067664909091</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3719905295073744</v>
+        <v>0.4069518043360018</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.477605694897832</v>
+        <v>0.1142347282625567</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1387376606500904</v>
+        <v>0.3450633061518301</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5210294127464294</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G17" t="n">
-        <v>1.86451530456543</v>
+        <v>0.9062172770500183</v>
       </c>
       <c r="H17" t="n">
-        <v>1.461535811424255</v>
+        <v>0.8034555315971375</v>
       </c>
       <c r="I17" t="n">
-        <v>1.674880504608154</v>
+        <v>0.8578587174415588</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_11_6_16</t>
+          <t>model_11_6_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5500845084871377</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4185836863270134</v>
+        <v>0.4069518043360018</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.482123838406459</v>
+        <v>0.1142347282625567</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1757540814715985</v>
+        <v>0.3450633061518301</v>
       </c>
       <c r="F18" t="n">
-        <v>0.497923880815506</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G18" t="n">
-        <v>1.726183533668518</v>
+        <v>0.9062172770500183</v>
       </c>
       <c r="H18" t="n">
-        <v>1.464200973510742</v>
+        <v>0.8034555315971375</v>
       </c>
       <c r="I18" t="n">
-        <v>1.602895379066467</v>
+        <v>0.8578587174415588</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_11_6_23</t>
+          <t>model_11_6_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5570932623779115</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4252961412504578</v>
+        <v>0.4069518043360018</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.507159299870958</v>
+        <v>0.1142347282625567</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1776040270737769</v>
+        <v>0.3450633061518301</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4901672899723053</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G19" t="n">
-        <v>1.706254720687866</v>
+        <v>0.9062172770500183</v>
       </c>
       <c r="H19" t="n">
-        <v>1.47896945476532</v>
+        <v>0.8034555315971375</v>
       </c>
       <c r="I19" t="n">
-        <v>1.599297761917114</v>
+        <v>0.8578587174415588</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_11_6_20</t>
+          <t>model_11_6_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5596061181716283</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4254206611107925</v>
+        <v>0.4069518043360018</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.45685598627071</v>
+        <v>0.1142347282625567</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1848862114392096</v>
+        <v>0.3450633061518301</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4873862564563751</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G20" t="n">
-        <v>1.705885052680969</v>
+        <v>0.9062172770500183</v>
       </c>
       <c r="H20" t="n">
-        <v>1.44929563999176</v>
+        <v>0.8034555315971375</v>
       </c>
       <c r="I20" t="n">
-        <v>1.585136294364929</v>
+        <v>0.8578587174415588</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_11_6_21</t>
+          <t>model_11_6_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5597226480165295</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4247696187191011</v>
+        <v>0.4069518043360018</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.454601504240417</v>
+        <v>0.1142347282625567</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1846821117942712</v>
+        <v>0.3450633061518301</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4872572720050812</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G21" t="n">
-        <v>1.707817912101746</v>
+        <v>0.9062172770500183</v>
       </c>
       <c r="H21" t="n">
-        <v>1.447965741157532</v>
+        <v>0.8034555315971375</v>
       </c>
       <c r="I21" t="n">
-        <v>1.585533142089844</v>
+        <v>0.8578587174415588</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_11_6_17</t>
+          <t>model_11_6_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5605258851156933</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4375994608381018</v>
+        <v>0.4069518043360018</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.474562727563463</v>
+        <v>0.1142347282625567</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1922013532764962</v>
+        <v>0.3450633061518301</v>
       </c>
       <c r="F22" t="n">
-        <v>0.486368328332901</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G22" t="n">
-        <v>1.669726848602295</v>
+        <v>0.9062172770500183</v>
       </c>
       <c r="H22" t="n">
-        <v>1.4597407579422</v>
+        <v>0.8034555315971375</v>
       </c>
       <c r="I22" t="n">
-        <v>1.570910573005676</v>
+        <v>0.8578587174415588</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_11_6_18</t>
+          <t>model_11_6_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.5606442512368173</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C23" t="n">
-        <v>0.43701087492066</v>
+        <v>0.4069518043360018</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.472796891406661</v>
+        <v>0.1142347282625567</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1919786309674401</v>
+        <v>0.3450633061518301</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4862373173236847</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G23" t="n">
-        <v>1.671474456787109</v>
+        <v>0.9062172770500183</v>
       </c>
       <c r="H23" t="n">
-        <v>1.458698987960815</v>
+        <v>0.8034555315971375</v>
       </c>
       <c r="I23" t="n">
-        <v>1.571343779563904</v>
+        <v>0.8578587174415588</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_11_6_19</t>
+          <t>model_11_6_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.5626284588467265</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4374319344557204</v>
+        <v>0.4069518043360018</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.467397063556499</v>
+        <v>0.1142347282625567</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1930875150437791</v>
+        <v>0.3450633061518301</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4840414822101593</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G24" t="n">
-        <v>1.670224547386169</v>
+        <v>0.9062172770500183</v>
       </c>
       <c r="H24" t="n">
-        <v>1.455513834953308</v>
+        <v>0.8034555315971375</v>
       </c>
       <c r="I24" t="n">
-        <v>1.56918740272522</v>
+        <v>0.8578587174415588</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_11_6_22</t>
+          <t>model_11_6_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.5658577665962481</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4426929299761215</v>
+        <v>0.4069518043360018</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.485847286899867</v>
+        <v>0.1142347282625567</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1947077124110093</v>
+        <v>0.3450633061518301</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4804675281047821</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G25" t="n">
-        <v>1.654604911804199</v>
+        <v>0.9062172770500183</v>
       </c>
       <c r="H25" t="n">
-        <v>1.466397523880005</v>
+        <v>0.8034555315971375</v>
       </c>
       <c r="I25" t="n">
-        <v>1.566036581993103</v>
+        <v>0.8578587174415588</v>
       </c>
     </row>
     <row r="26">
@@ -1226,28 +1226,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.5715120536236915</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4799667493104999</v>
+        <v>0.4069518043360018</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.629609302281585</v>
+        <v>0.1142347282625567</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2043105931034074</v>
+        <v>0.3450633061518301</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4742099344730377</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G26" t="n">
-        <v>1.543941497802734</v>
+        <v>0.9062172770500183</v>
       </c>
       <c r="H26" t="n">
-        <v>1.551202535629272</v>
+        <v>0.8034555315971375</v>
       </c>
       <c r="I26" t="n">
-        <v>1.547362089157104</v>
+        <v>0.8578587174415588</v>
       </c>
     </row>
   </sheetData>
